--- a/Documentacao/Potencia.xlsx
+++ b/Documentacao/Potencia.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\Cade-o-Onibus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffe\Desktop\Cade-o-Onibus\Documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Indoor" sheetId="1" r:id="rId1"/>
+    <sheet name="Outdoor" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
   <si>
     <t>Distancia (m)</t>
   </si>
@@ -1090,11 +1091,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-96769664"/>
-        <c:axId val="-96536480"/>
+        <c:axId val="2108137920"/>
+        <c:axId val="563551184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-96769664"/>
+        <c:axId val="2108137920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,12 +1152,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96536480"/>
+        <c:crossAx val="563551184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-96536480"/>
+        <c:axId val="563551184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1214,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-96769664"/>
+        <c:crossAx val="2108137920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2118,8 +2119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,4 +2763,1072 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f>A2+5</f>
+        <v>5</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1">
+        <v>53</v>
+      </c>
+      <c r="G3" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A41" si="0">A3+5</f>
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1">
+        <v>56</v>
+      </c>
+      <c r="F4" s="1">
+        <v>55</v>
+      </c>
+      <c r="G4" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1">
+        <v>71</v>
+      </c>
+      <c r="G5" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B6" s="1">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1">
+        <v>61</v>
+      </c>
+      <c r="G6" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1">
+        <v>61</v>
+      </c>
+      <c r="E7" s="1">
+        <v>64</v>
+      </c>
+      <c r="F7" s="1">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="1">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1">
+        <v>61</v>
+      </c>
+      <c r="E8" s="1">
+        <v>61</v>
+      </c>
+      <c r="F8" s="1">
+        <v>62</v>
+      </c>
+      <c r="G8" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1">
+        <v>62</v>
+      </c>
+      <c r="G9" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B10" s="1">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>66</v>
+      </c>
+      <c r="E10" s="1">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1">
+        <v>65</v>
+      </c>
+      <c r="F11" s="1">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B12" s="1">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1">
+        <v>64</v>
+      </c>
+      <c r="E12" s="1">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1">
+        <v>67</v>
+      </c>
+      <c r="G12" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1">
+        <v>66</v>
+      </c>
+      <c r="G13" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B14" s="1">
+        <v>76</v>
+      </c>
+      <c r="C14" s="1">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1">
+        <v>70</v>
+      </c>
+      <c r="E15" s="1">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="B16" s="1">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1">
+        <v>71</v>
+      </c>
+      <c r="E16" s="1">
+        <v>75</v>
+      </c>
+      <c r="F16" s="1">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1">
+        <v>73</v>
+      </c>
+      <c r="D17" s="1">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1">
+        <v>74</v>
+      </c>
+      <c r="G17" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="B18" s="1">
+        <v>92</v>
+      </c>
+      <c r="C18" s="1">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1">
+        <v>70</v>
+      </c>
+      <c r="E18" s="1">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1">
+        <v>71</v>
+      </c>
+      <c r="G18" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1">
+        <v>80</v>
+      </c>
+      <c r="D19" s="1">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1">
+        <v>75</v>
+      </c>
+      <c r="F19" s="1">
+        <v>73</v>
+      </c>
+      <c r="G19" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="B20" s="1">
+        <v>76</v>
+      </c>
+      <c r="C20" s="1">
+        <v>81</v>
+      </c>
+      <c r="D20" s="1">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1">
+        <v>77</v>
+      </c>
+      <c r="F20" s="1">
+        <v>76</v>
+      </c>
+      <c r="G20" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1">
+        <v>78</v>
+      </c>
+      <c r="E21" s="1">
+        <v>82</v>
+      </c>
+      <c r="F21" s="1">
+        <v>73</v>
+      </c>
+      <c r="G21" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B22" s="1">
+        <v>93</v>
+      </c>
+      <c r="C22" s="1">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1">
+        <v>72</v>
+      </c>
+      <c r="E22" s="1">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1">
+        <v>81</v>
+      </c>
+      <c r="D23" s="1">
+        <v>78</v>
+      </c>
+      <c r="E23" s="1">
+        <v>77</v>
+      </c>
+      <c r="F23" s="1">
+        <v>76</v>
+      </c>
+      <c r="G23" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B24" s="1">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1">
+        <v>77</v>
+      </c>
+      <c r="F24" s="1">
+        <v>76</v>
+      </c>
+      <c r="G24" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1">
+        <v>77</v>
+      </c>
+      <c r="G25" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B26" s="1">
+        <v>87</v>
+      </c>
+      <c r="C26" s="1">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1">
+        <v>81</v>
+      </c>
+      <c r="F26" s="1">
+        <v>78</v>
+      </c>
+      <c r="G26" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1">
+        <v>76</v>
+      </c>
+      <c r="D27" s="1">
+        <v>75</v>
+      </c>
+      <c r="E27" s="1">
+        <v>77</v>
+      </c>
+      <c r="F27" s="1">
+        <v>77</v>
+      </c>
+      <c r="G27" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="B28" s="1">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1">
+        <v>80</v>
+      </c>
+      <c r="G28" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1">
+        <v>79</v>
+      </c>
+      <c r="E29" s="1">
+        <v>83</v>
+      </c>
+      <c r="F29" s="1">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="B30" s="1">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1">
+        <v>87</v>
+      </c>
+      <c r="D30" s="1">
+        <v>80</v>
+      </c>
+      <c r="E30" s="1">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1">
+        <v>79</v>
+      </c>
+      <c r="G30" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1">
+        <v>82</v>
+      </c>
+      <c r="D31" s="1">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1">
+        <v>81</v>
+      </c>
+      <c r="F31" s="1">
+        <v>85</v>
+      </c>
+      <c r="G31" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="B32" s="1">
+        <v>84</v>
+      </c>
+      <c r="C32" s="1">
+        <v>81</v>
+      </c>
+      <c r="D32" s="1">
+        <v>83</v>
+      </c>
+      <c r="E32" s="1">
+        <v>83</v>
+      </c>
+      <c r="F32" s="1">
+        <v>82</v>
+      </c>
+      <c r="G32" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1">
+        <v>86</v>
+      </c>
+      <c r="D33" s="1">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1">
+        <v>85</v>
+      </c>
+      <c r="F33" s="1">
+        <v>86</v>
+      </c>
+      <c r="G33" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="B34" s="1">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1">
+        <v>89</v>
+      </c>
+      <c r="D34" s="1">
+        <v>90</v>
+      </c>
+      <c r="E34" s="1">
+        <v>91</v>
+      </c>
+      <c r="F34" s="1">
+        <v>89</v>
+      </c>
+      <c r="G34" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1">
+        <v>84</v>
+      </c>
+      <c r="F35" s="1">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="B36" s="1">
+        <v>94</v>
+      </c>
+      <c r="C36" s="1">
+        <v>86</v>
+      </c>
+      <c r="D36" s="1">
+        <v>91</v>
+      </c>
+      <c r="E36" s="1">
+        <v>87</v>
+      </c>
+      <c r="F36" s="1">
+        <v>90</v>
+      </c>
+      <c r="G36" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1">
+        <v>91</v>
+      </c>
+      <c r="E37" s="1">
+        <v>87</v>
+      </c>
+      <c r="F37" s="1">
+        <v>91</v>
+      </c>
+      <c r="G37" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="B38" s="1">
+        <v>90</v>
+      </c>
+      <c r="C38" s="1">
+        <v>91</v>
+      </c>
+      <c r="D38" s="1">
+        <v>90</v>
+      </c>
+      <c r="E38" s="1">
+        <v>90</v>
+      </c>
+      <c r="F38" s="1">
+        <v>87</v>
+      </c>
+      <c r="G38" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1">
+        <v>91</v>
+      </c>
+      <c r="F39" s="1">
+        <v>92</v>
+      </c>
+      <c r="G39" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="B40" s="1">
+        <v>92</v>
+      </c>
+      <c r="C40" s="1">
+        <v>91</v>
+      </c>
+      <c r="D40" s="1">
+        <v>93</v>
+      </c>
+      <c r="E40" s="1">
+        <v>89</v>
+      </c>
+      <c r="F40" s="1">
+        <v>93</v>
+      </c>
+      <c r="G40" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1">
+        <v>93</v>
+      </c>
+      <c r="D41" s="1">
+        <v>94</v>
+      </c>
+      <c r="E41" s="1">
+        <v>95</v>
+      </c>
+      <c r="F41" s="1">
+        <v>93</v>
+      </c>
+      <c r="G41" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f>A41+5</f>
+        <v>200</v>
+      </c>
+      <c r="B42" s="1">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1">
+        <v>95</v>
+      </c>
+      <c r="D42" s="1">
+        <v>94</v>
+      </c>
+      <c r="E42" s="1">
+        <v>94</v>
+      </c>
+      <c r="F42" s="1">
+        <v>94</v>
+      </c>
+      <c r="G42" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" ref="A43:A48" si="1">A42+5</f>
+        <v>205</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="B44" s="1">
+        <v>95</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f>A44+5</f>
+        <v>215</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="B46" s="1">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="B48" s="1">
+        <v>95</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Documentacao/Potencia.xlsx
+++ b/Documentacao/Potencia.xlsx
@@ -25,12 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
   <si>
     <t>Distancia (m)</t>
   </si>
   <si>
     <t>RSSI (-dbm)</t>
+  </si>
+  <si>
+    <t>Perda (dbm)</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Desvio Padrão</t>
+  </si>
+  <si>
+    <t>Média Desvio</t>
   </si>
 </sst>
 </file>
@@ -66,12 +78,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -125,9 +142,670 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>RSSI x Distancia</a:t>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Perda de sinal para lugares internos</a:t>
             </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Indoor!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Indoor!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>62.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>60.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>61.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>61.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>64.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>64.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>70.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>70.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>72.666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>69.666666666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="735193600"/>
+        <c:axId val="726993232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="735193600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Distancia (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="726993232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="726993232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Perda (dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="735193600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Perda de sinal para lugares externos</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -165,14 +843,11 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Med 1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -183,23 +858,11 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Indoor!$A$2:$A$42</c:f>
+              <c:f>Outdoor!$A$2:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
@@ -207,131 +870,131 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Indoor!$B$2:$B$42</c:f>
+              <c:f>Outdoor!$H$2:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="41"/>
@@ -339,749 +1002,129 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>55.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54</c:v>
+                  <c:v>63.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44</c:v>
+                  <c:v>61.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>60.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46</c:v>
+                  <c:v>63.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>65.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>51</c:v>
+                  <c:v>66.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>53</c:v>
+                  <c:v>65.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>68.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>68.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>51</c:v>
+                  <c:v>70.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51</c:v>
+                  <c:v>72.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62</c:v>
+                  <c:v>72.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>60</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>75.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>75.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52</c:v>
+                  <c:v>78.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58</c:v>
+                  <c:v>77.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54</c:v>
+                  <c:v>78.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>78.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>53</c:v>
+                  <c:v>82.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>55</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>58</c:v>
+                  <c:v>82.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>59</c:v>
+                  <c:v>84.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>57</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>64</c:v>
+                  <c:v>86.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>62</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>63</c:v>
+                  <c:v>88.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>66</c:v>
+                  <c:v>90.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>73</c:v>
+                  <c:v>92.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>67</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>76</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>77</c:v>
+                  <c:v>94.333333333333329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Med 2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Indoor!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Indoor!$C$2:$C$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Med 3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Indoor!$A$2:$A$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Indoor!$D$2:$D$42</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1091,11 +1134,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108137920"/>
-        <c:axId val="563551184"/>
+        <c:axId val="735164224"/>
+        <c:axId val="735189792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108137920"/>
+        <c:axId val="735164224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1115,6 +1158,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Distancia (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1152,12 +1251,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="563551184"/>
+        <c:crossAx val="735189792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="563551184"/>
+        <c:axId val="735189792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1177,6 +1276,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Perda (dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1214,7 +1369,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2108137920"/>
+        <c:crossAx val="735164224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1303,6 +1458,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1819,20 +2014,571 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2117,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="A2:A42 E2:E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,23 +2875,34 @@
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2158,8 +2915,20 @@
       <c r="D2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <f>AVERAGE(B2:D2)</f>
+        <v>7</v>
+      </c>
+      <c r="F2" s="5">
+        <f>_xlfn.STDEV.S(B2:D2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <f xml:space="preserve"> AVERAGE(F2:F42)</f>
+        <v>3.2186078540099681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
@@ -2173,10 +2942,18 @@
       <c r="D3" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <f>AVERAGE(B3:D3)</f>
+        <v>35</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F42" si="0">_xlfn.STDEV.S(B3:D3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A42" si="0">A3+1</f>
+        <f t="shared" ref="A4:A42" si="1">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -2188,10 +2965,18 @@
       <c r="D4" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E42" si="2">AVERAGE(B4:D4)</f>
+        <v>39</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -2203,10 +2988,18 @@
       <c r="D5" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1633319989322661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B6" s="1">
@@ -2218,10 +3011,18 @@
       <c r="D6" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>3.6055512754639891</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B7" s="1">
@@ -2233,10 +3034,18 @@
       <c r="D7" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B8" s="1">
@@ -2248,10 +3057,18 @@
       <c r="D8" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>43.666666666666664</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B9" s="1">
@@ -2263,10 +3080,18 @@
       <c r="D9" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -2278,10 +3103,18 @@
       <c r="D10" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B11" s="1">
@@ -2293,10 +3126,18 @@
       <c r="D11" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B12" s="1">
@@ -2308,10 +3149,18 @@
       <c r="D12" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>54.333333333333336</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5275252316519465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B13" s="1">
@@ -2323,10 +3172,18 @@
       <c r="D13" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>44.666666666666664</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -2338,10 +3195,18 @@
       <c r="D14" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7859388972001828</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B15" s="1">
@@ -2353,10 +3218,18 @@
       <c r="D15" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -2368,10 +3241,18 @@
       <c r="D16" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>50.666666666666664</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B17" s="1">
@@ -2383,10 +3264,18 @@
       <c r="D17" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5075705472861021</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B18" s="1">
@@ -2398,10 +3287,18 @@
       <c r="D18" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>56.333333333333336</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5118845842842465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="B19" s="1">
@@ -2413,10 +3310,18 @@
       <c r="D19" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -2428,10 +3333,18 @@
       <c r="D20" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5166114784235831</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B21" s="1">
@@ -2443,10 +3356,18 @@
       <c r="D21" s="1">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>52.333333333333336</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5166114784235831</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B22" s="1">
@@ -2458,10 +3379,18 @@
       <c r="D22" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>62.666666666666664</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="B23" s="1">
@@ -2473,10 +3402,18 @@
       <c r="D23" s="1">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>55.333333333333336</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6583281184793934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B24" s="1">
@@ -2488,10 +3425,18 @@
       <c r="D24" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>59.333333333333336</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>2.3094010767585029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="B25" s="1">
@@ -2503,10 +3448,18 @@
       <c r="D25" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>64.333333333333329</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>14.433756729740633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="B26" s="1">
@@ -2518,10 +3471,18 @@
       <c r="D26" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>59.666666666666664</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>8.1445278152470593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="B27" s="1">
@@ -2533,10 +3494,18 @@
       <c r="D27" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5825756949558398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B28" s="1">
@@ -2548,10 +3517,18 @@
       <c r="D28" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>60.333333333333336</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>3.0550504633038931</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B29" s="1">
@@ -2563,10 +3540,18 @@
       <c r="D29" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B30" s="1">
@@ -2578,10 +3563,18 @@
       <c r="D30" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>4.358898943540674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B31" s="1">
@@ -2593,10 +3586,18 @@
       <c r="D31" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>6.0827625302982193</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B32" s="1">
@@ -2608,10 +3609,18 @@
       <c r="D32" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>5.7735026918962582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B33" s="1">
@@ -2623,10 +3632,18 @@
       <c r="D33" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>3.2145502536643185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B34" s="1">
@@ -2638,10 +3655,18 @@
       <c r="D34" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>5.196152422706632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -2653,10 +3678,18 @@
       <c r="D35" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>64.666666666666671</v>
+      </c>
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B36" s="1">
@@ -2668,10 +3701,18 @@
       <c r="D36" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>64.666666666666671</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>3.7859388972001824</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B37" s="1">
@@ -2683,10 +3724,18 @@
       <c r="D37" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B38" s="1">
@@ -2698,10 +3747,18 @@
       <c r="D38" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B39" s="1">
@@ -2713,10 +3770,18 @@
       <c r="D39" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5166114784235831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B40" s="1">
@@ -2728,10 +3793,18 @@
       <c r="D40" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>5.5075705472861021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B41" s="1">
@@ -2743,10 +3816,18 @@
       <c r="D41" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5118845842842461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B42" s="1">
@@ -2757,6 +3838,14 @@
       </c>
       <c r="D42" s="1">
         <v>64</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6583281184793925</v>
       </c>
     </row>
   </sheetData>
@@ -2767,10 +3856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H2" activeCellId="1" sqref="A2:A42 H2:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2782,9 +3871,11 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2806,8 +3897,17 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2829,8 +3929,20 @@
       <c r="G2" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="3">
+        <f>AVERAGE(C2:E2)</f>
+        <v>7</v>
+      </c>
+      <c r="I2" s="4">
+        <f>_xlfn.STDEV.S(C2:E2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(I2:I42)</f>
+        <v>2.0036781440882483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+5</f>
         <v>5</v>
@@ -2851,10 +3963,18 @@
       <c r="G3" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H42" si="0">AVERAGE(C3:E3)</f>
+        <v>48</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I42" si="1">_xlfn.STDEV.S(C3:E3)</f>
+        <v>3.4641016151377544</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A41" si="0">A3+5</f>
+        <f t="shared" ref="A4:A41" si="2">A3+5</f>
         <v>10</v>
       </c>
       <c r="B4" s="1">
@@ -2875,10 +3995,18 @@
       <c r="G4" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>55.666666666666664</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57735026918962584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B5" s="1"/>
@@ -2897,10 +4025,18 @@
       <c r="G5" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B6" s="1">
@@ -2921,10 +4057,18 @@
       <c r="G6" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B7" s="1"/>
@@ -2943,10 +4087,18 @@
       <c r="G7" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>61.333333333333336</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5166114784235831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B8" s="1">
@@ -2967,10 +4119,18 @@
       <c r="G8" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>60.333333333333336</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B9" s="1"/>
@@ -2989,10 +4149,18 @@
       <c r="G9" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>63.333333333333336</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B10" s="1">
@@ -3013,10 +4181,18 @@
       <c r="G10" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>65.666666666666671</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5166114784235836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B11" s="1"/>
@@ -3035,10 +4211,18 @@
       <c r="G11" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="1"/>
+        <v>4.7258156262526079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B12" s="1">
@@ -3059,10 +4243,18 @@
       <c r="G12" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>65.666666666666671</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.8867513459481287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B13" s="1"/>
@@ -3081,10 +4273,18 @@
       <c r="G13" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>68.666666666666671</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B14" s="1">
@@ -3105,10 +4305,18 @@
       <c r="G14" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>68.666666666666671</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B15" s="1"/>
@@ -3127,10 +4335,18 @@
       <c r="G15" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>70.666666666666671</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B16" s="1">
@@ -3151,10 +4367,18 @@
       <c r="G16" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B17" s="1"/>
@@ -3173,10 +4397,18 @@
       <c r="G17" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>72.666666666666671</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="B18" s="1">
@@ -3197,10 +4429,18 @@
       <c r="G18" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="B19" s="1"/>
@@ -3219,10 +4459,18 @@
       <c r="G19" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5092497528228943</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="B20" s="1">
@@ -3243,10 +4491,18 @@
       <c r="G20" s="1">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
       <c r="B21" s="1"/>
@@ -3265,10 +4521,18 @@
       <c r="G21" s="1">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="B22" s="1">
@@ -3289,10 +4553,18 @@
       <c r="G22" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>75.333333333333329</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0550504633038931</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="B23" s="1"/>
@@ -3311,10 +4583,18 @@
       <c r="G23" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>78.666666666666671</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="B24" s="1">
@@ -3335,10 +4615,18 @@
       <c r="G24" s="1">
         <v>87</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>77.666666666666671</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="B25" s="1"/>
@@ -3357,10 +4645,18 @@
       <c r="G25" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7320508075688772</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="B26" s="1">
@@ -3381,10 +4677,18 @@
       <c r="G26" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>78.666666666666671</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>125</v>
       </c>
       <c r="B27" s="1"/>
@@ -3403,10 +4707,18 @@
       <c r="G27" s="1">
         <v>81</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B28" s="1">
@@ -3427,10 +4739,18 @@
       <c r="G28" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>78.666666666666671</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="1"/>
+        <v>2.5166114784235831</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>135</v>
       </c>
       <c r="B29" s="1"/>
@@ -3449,10 +4769,18 @@
       <c r="G29" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="B30" s="1">
@@ -3473,10 +4801,18 @@
       <c r="G30" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>82.666666666666671</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7859388972001824</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="B31" s="1"/>
@@ -3495,10 +4831,18 @@
       <c r="G31" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="B32" s="1">
@@ -3519,10 +4863,18 @@
       <c r="G32" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>82.333333333333329</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>155</v>
       </c>
       <c r="B33" s="1"/>
@@ -3541,10 +4893,18 @@
       <c r="G33" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>84.333333333333329</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="B34" s="1">
@@ -3565,10 +4925,18 @@
       <c r="G34" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="B35" s="1"/>
@@ -3587,10 +4955,18 @@
       <c r="G35" s="1">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="B36" s="1">
@@ -3611,10 +4987,18 @@
       <c r="G36" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="I36" s="4">
+        <f t="shared" si="1"/>
+        <v>2.6457513110645907</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
       <c r="B37" s="1"/>
@@ -3633,10 +5017,18 @@
       <c r="G37" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>88.666666666666671</v>
+      </c>
+      <c r="I37" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0816659994661331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="B38" s="1">
@@ -3657,10 +5049,18 @@
       <c r="G38" s="1">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>90.333333333333329</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="B39" s="1"/>
@@ -3679,10 +5079,18 @@
       <c r="G39" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>92.333333333333329</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5275252316519468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="B40" s="1">
@@ -3703,10 +5111,18 @@
       <c r="G40" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="3">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>195</v>
       </c>
       <c r="B41" s="1"/>
@@ -3725,8 +5141,16 @@
       <c r="G41" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="3">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f>A41+5</f>
         <v>200</v>
@@ -3749,10 +5173,18 @@
       <c r="G42" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>94.333333333333329</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="1"/>
+        <v>0.57735026918962573</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <f t="shared" ref="A43:A48" si="1">A42+5</f>
+        <f t="shared" ref="A43:A48" si="3">A42+5</f>
         <v>205</v>
       </c>
       <c r="B43" s="1"/>
@@ -3762,9 +5194,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="B44" s="1">
@@ -3776,7 +5208,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f>A44+5</f>
         <v>215</v>
@@ -3788,9 +5220,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="B46" s="1">
@@ -3802,9 +5234,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="B47" s="1"/>
@@ -3814,9 +5246,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="B48" s="1">
@@ -3830,5 +5262,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>